--- a/InputData/io-model/HEbIC/Household Expenditures by ISIC Code.xlsx
+++ b/InputData/io-model/HEbIC/Household Expenditures by ISIC Code.xlsx
@@ -7468,109 +7468,109 @@
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>0.009851700376333924</v>
+        <v>0.03251307431019768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01355855814528719</v>
+        <v>0.0001543201664529244</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009747289303305725</v>
+        <v>0.04262454098247073</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001322262484701591</v>
+        <v>0.0002159775383360131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06598643320569487</v>
+        <v>0.02273176606937927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03701918144747113</v>
+        <v>0.03515238468899154</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03843733071942632</v>
+        <v>0.03430237057290995</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03963124875875492</v>
+        <v>0.08207538784555098</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001464767662916446</v>
+        <v>0.02562875931062424</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00878366061811252</v>
+        <v>0.008087662606678267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02747765254566654</v>
+        <v>0.02068532193289286</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02154779969650986</v>
+        <v>0.02131343786882482</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009780981711198665</v>
+        <v>0.01144985633914285</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01557189498755586</v>
+        <v>0.02890050044156608</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008602785955594159</v>
+        <v>0.0332146709432592</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0155539828575922</v>
+        <v>0.02240465518597153</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01174703269103528</v>
+        <v>0.03036309869424902</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009775078295530037</v>
+        <v>0.005315871057543261</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02484991001169191</v>
+        <v>0.01138319254870535</v>
       </c>
       <c r="U4" t="n">
-        <v>0.008500134734572892</v>
+        <v>0.05636432228509836</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02387358225911892</v>
+        <v>0.01709920854040125</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02564466886901908</v>
+        <v>0.01767697791026194</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04243801971743064</v>
+        <v>0.03880144268039311</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0221951705399015</v>
+        <v>0.01852670115347938</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02294051380867042</v>
+        <v>0.01462036764326589</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02050140988590142</v>
+        <v>0.02262711289294482</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01829982420806315</v>
+        <v>0.01077453228867132</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02276020231290945</v>
+        <v>0.01076942906159166</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01759022283222994</v>
+        <v>0.02008564777436891</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02748785041269783</v>
+        <v>0.01485304821481962</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1400890524774571</v>
+        <v>0.08528496781319983</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0384761385413075</v>
+        <v>0.0142217912946656</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02055823047187146</v>
+        <v>0.01512479262074644</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02242579985175014</v>
+        <v>0.02299336157921657</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01595922288443064</v>
+        <v>0.01585009839857485</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
